--- a/Manuscript main analyses data files.xlsx
+++ b/Manuscript main analyses data files.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Desktop\Don edited lawson and edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7C9D48A-4597-4F57-B0DB-9D87C343C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91FAE62-F8CB-4201-B789-E6EE3DEAFCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91BC535B-495F-46B8-912D-48EE0291C12B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{91BC535B-495F-46B8-912D-48EE0291C12B}"/>
   </bookViews>
   <sheets>
-    <sheet name="trca_standardized" sheetId="1" r:id="rId1"/>
-    <sheet name="pivot_first_m" sheetId="2" r:id="rId2"/>
-    <sheet name="pivot_last_m" sheetId="3" r:id="rId3"/>
-    <sheet name="bcplot" sheetId="4" r:id="rId4"/>
+    <sheet name="Metadata" sheetId="5" r:id="rId1"/>
+    <sheet name="trca_standardized" sheetId="1" r:id="rId2"/>
+    <sheet name="pivot_first_m" sheetId="2" r:id="rId3"/>
+    <sheet name="pivot_last_m" sheetId="3" r:id="rId4"/>
+    <sheet name="bcplot" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="140">
   <si>
     <t>Station</t>
   </si>
@@ -412,13 +413,77 @@
   <si>
     <t xml:space="preserve">-  </t>
   </si>
+  <si>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t>Fish community data</t>
+  </si>
+  <si>
+    <t>Land cover data</t>
+  </si>
+  <si>
+    <t>Connectivity data</t>
+  </si>
+  <si>
+    <t>Toronto and Region Conservation Authority open data license (https://trca.ca/about/open-data-licence/) and further data sharing from TRCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Ontario Land Resource Information System </t>
+  </si>
+  <si>
+    <t>Christopher Edge and M Choy (2018)</t>
+  </si>
+  <si>
+    <t>Data files</t>
+  </si>
+  <si>
+    <t>trca_standardized</t>
+  </si>
+  <si>
+    <t>pivot_first_m</t>
+  </si>
+  <si>
+    <t>pivot_last_m</t>
+  </si>
+  <si>
+    <t>bcplot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardized datafile used for linear mixed effects modelling </t>
+  </si>
+  <si>
+    <t>species matrices used for first time period for TBI analysis, B-C plots, and paired t tests</t>
+  </si>
+  <si>
+    <t>species matrices used for last time period for TBI analysis, B-C plots, and paired t tests</t>
+  </si>
+  <si>
+    <t>TBI results used for plotting, same TBI values are used for corresponding analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -446,8 +511,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,11 +833,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B946BB0-FA5F-4EEE-A4B0-DF3C2C0E01AE}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2741A668-8775-4743-835B-1BC82255AE96}">
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3195,7 +3418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B78CB1-DDE1-45CE-A753-AE487404F098}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
@@ -10250,7 +10473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7519380-B10E-4D29-905C-68134AE6D528}">
   <dimension ref="A1:AP55"/>
   <sheetViews>
@@ -17305,7 +17528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6357C4C6-5267-4CE9-A8E9-A6C9521F63D2}">
   <dimension ref="A1:H55"/>
   <sheetViews>
